--- a/results/output/segmentation_recall_unattested.xlsx
+++ b/results/output/segmentation_recall_unattested.xlsx
@@ -3204,7 +3204,7 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AM3" t="n">
         <v>0.0</v>
@@ -3323,7 +3323,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AM4" t="n">
         <v>0.3333333333333333</v>
@@ -3918,7 +3918,7 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AM9" t="n">
         <v>0.0</v>
@@ -4751,7 +4751,7 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AM16" t="n">
         <v>0.0</v>
@@ -5108,7 +5108,7 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM19" t="n">
         <v>0.0</v>
@@ -6298,7 +6298,7 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AM29" t="n">
         <v>0.0</v>
@@ -6417,7 +6417,7 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AM30" t="n">
         <v>0.0</v>
@@ -6536,7 +6536,7 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AM31" t="n">
         <v>0.0</v>
@@ -6774,7 +6774,7 @@
         <v>0.25</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AM33" t="n">
         <v>0.25</v>
@@ -10494,7 +10494,7 @@
         <v>0.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AP2" t="n">
         <v>0.0</v>
@@ -12542,7 +12542,7 @@
         <v>0.0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP18" t="n">
         <v>0.0</v>
@@ -13950,7 +13950,7 @@
         <v>0.0</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="AP29" t="n">
         <v>0.0</v>
@@ -15614,7 +15614,7 @@
         <v>0.0</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP42" t="n">
         <v>0.0</v>
@@ -16254,7 +16254,7 @@
         <v>0.0</v>
       </c>
       <c r="AO47" t="n">
-        <v>1.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AP47" t="n">
         <v>0.0</v>
@@ -17278,7 +17278,7 @@
         <v>0.0</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP55" t="n">
         <v>0.0</v>
@@ -19198,7 +19198,7 @@
         <v>0.0</v>
       </c>
       <c r="AO70" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="AP70" t="n">
         <v>0.0</v>
@@ -19326,7 +19326,7 @@
         <v>0.0</v>
       </c>
       <c r="AO71" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="AP71" t="n">
         <v>0.0</v>
@@ -21374,7 +21374,7 @@
         <v>0.0</v>
       </c>
       <c r="AO87" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP87" t="n">
         <v>0.0</v>
@@ -23678,7 +23678,7 @@
         <v>0.0</v>
       </c>
       <c r="AO105" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="AP105" t="n">
         <v>0.0</v>
@@ -24062,7 +24062,7 @@
         <v>0.0</v>
       </c>
       <c r="AO108" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP108" t="n">
         <v>0.0</v>
@@ -24190,7 +24190,7 @@
         <v>0.0</v>
       </c>
       <c r="AO109" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP109" t="n">
         <v>0.0</v>
@@ -28414,7 +28414,7 @@
         <v>0.0</v>
       </c>
       <c r="AO142" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP142" t="n">
         <v>0.0</v>
@@ -29822,7 +29822,7 @@
         <v>0.0</v>
       </c>
       <c r="AO153" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP153" t="n">
         <v>0.0</v>
@@ -29950,7 +29950,7 @@
         <v>0.0</v>
       </c>
       <c r="AO154" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP154" t="n">
         <v>0.0</v>
@@ -30590,7 +30590,7 @@
         <v>0.0</v>
       </c>
       <c r="AO159" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP159" t="n">
         <v>0.0</v>
@@ -37246,7 +37246,7 @@
         <v>0.0</v>
       </c>
       <c r="AO211" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP211" t="n">
         <v>0.0</v>
@@ -37502,7 +37502,7 @@
         <v>0.0</v>
       </c>
       <c r="AO213" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP213" t="n">
         <v>0.0</v>
